--- a/data/asignacion/cargado/asignacion_bienvenida_tradicional/Bienvenida tradicional 9102025 325 reg.xlsx
+++ b/data/asignacion/cargado/asignacion_bienvenida_tradicional/Bienvenida tradicional 9102025 325 reg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://axa365-my.sharepoint.com/personal/cindy_lopezp_axacolpatria_co/Documents/2025/1. Relacionamiento/1. Call center/1. Bienvenidas/10. Octubre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_github\Axa\data\asignacion\cargado\asignacion_bienvenida_tradicional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DF23BBA-7B10-4DA8-8E0D-4DDE23013155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C324A7-B302-4A1C-89BD-8804E40DC386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FF224157-989A-47A0-AB8E-E16483A14422}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{FF224157-989A-47A0-AB8E-E16483A14422}"/>
   </bookViews>
   <sheets>
     <sheet name="Bienvenida 152" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,11 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId6"/>
-    <pivotCache cacheId="6" r:id="rId7"/>
-    <pivotCache cacheId="7" r:id="rId8"/>
-    <pivotCache cacheId="8" r:id="rId9"/>
-    <pivotCache cacheId="9" r:id="rId10"/>
+    <pivotCache cacheId="38" r:id="rId6"/>
+    <pivotCache cacheId="39" r:id="rId7"/>
+    <pivotCache cacheId="40" r:id="rId8"/>
+    <pivotCache cacheId="41" r:id="rId9"/>
+    <pivotCache cacheId="42" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -4808,7 +4808,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="60">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5406,14 +5406,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -45340,7 +45332,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59895C82-B7BF-44C6-BDCA-A48CEC8FE3C4}" name="TablaDinámica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{59895C82-B7BF-44C6-BDCA-A48CEC8FE3C4}" name="TablaDinámica1" cacheId="42" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:B90" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField numFmtId="14" showAll="0"/>
@@ -45765,7 +45757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB07A84-80D4-4813-9F8A-1612358D000A}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5DB07A84-80D4-4813-9F8A-1612358D000A}" name="TablaDinámica1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:C94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField numFmtId="14" showAll="0"/>
@@ -46203,7 +46195,142 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00E5A513-CA1B-4CA6-994F-BE7862BB7586}" name="TablaDinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{500DF182-4779-4191-B7B6-AB8047871488}" name="TablaDinámica2" cacheId="38" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="29">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="57">
+        <item m="1" x="5"/>
+        <item m="1" x="6"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item x="0"/>
+        <item m="1" x="10"/>
+        <item m="1" x="11"/>
+        <item m="1" x="12"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="18"/>
+        <item m="1" x="19"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="24"/>
+        <item m="1" x="25"/>
+        <item x="1"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="28"/>
+        <item m="1" x="29"/>
+        <item m="1" x="30"/>
+        <item m="1" x="31"/>
+        <item m="1" x="32"/>
+        <item x="2"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="37"/>
+        <item m="1" x="38"/>
+        <item x="3"/>
+        <item m="1" x="39"/>
+        <item m="1" x="40"/>
+        <item x="4"/>
+        <item m="1" x="41"/>
+        <item m="1" x="42"/>
+        <item m="1" x="43"/>
+        <item m="1" x="44"/>
+        <item m="1" x="45"/>
+        <item m="1" x="46"/>
+        <item m="1" x="47"/>
+        <item m="1" x="48"/>
+        <item m="1" x="49"/>
+        <item m="1" x="50"/>
+        <item m="1" x="51"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de CONTRATO" fld="5" subtotal="count" baseField="8" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00E5A513-CA1B-4CA6-994F-BE7862BB7586}" name="TablaDinámica1" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:C7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField numFmtId="14" showAll="0"/>
@@ -46342,8 +46469,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DC750F0-E680-45F2-81D7-E63A7667256A}" name="TablaDinámica3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8DC750F0-E680-45F2-81D7-E63A7667256A}" name="TablaDinámica3" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E2:F12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="29">
     <pivotField numFmtId="14" showAll="0"/>
@@ -46419,141 +46546,6 @@
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de CONTRATO" fld="5" subtotal="count" baseField="8" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{500DF182-4779-4191-B7B6-AB8047871488}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B9:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="29">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="57">
-        <item m="1" x="5"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
-        <item m="1" x="12"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item m="1" x="15"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="18"/>
-        <item m="1" x="19"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="24"/>
-        <item m="1" x="25"/>
-        <item x="1"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="28"/>
-        <item m="1" x="29"/>
-        <item m="1" x="30"/>
-        <item m="1" x="31"/>
-        <item m="1" x="32"/>
-        <item x="2"/>
-        <item m="1" x="33"/>
-        <item m="1" x="34"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="37"/>
-        <item m="1" x="38"/>
-        <item x="3"/>
-        <item m="1" x="39"/>
-        <item m="1" x="40"/>
-        <item x="4"/>
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="40"/>
     </i>
     <i t="grand">
       <x/>
@@ -46896,8 +46888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5919D127-FF34-46F0-956C-2CC421D4AF94}">
   <dimension ref="A1:AC408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="I319" sqref="I319"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -75253,40 +75245,40 @@
     <cfRule type="duplicateValues" dxfId="57" priority="2181"/>
     <cfRule type="duplicateValues" dxfId="56" priority="2182"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F409:F1048576 F1:F326">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="54" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="42" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="40" priority="81"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="84"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="87"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="182"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="182"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="183"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F1048576 F1:F8 F11:F139">
-    <cfRule type="duplicateValues" dxfId="34" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F1048576 F1:F139">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F409:F1048576 F1:F326">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F409:F1048576">
     <cfRule type="duplicateValues" dxfId="32" priority="5"/>
@@ -75300,24 +75292,24 @@
   <conditionalFormatting sqref="M1">
     <cfRule type="duplicateValues" dxfId="25" priority="296"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O139">
+    <cfRule type="duplicateValues" dxfId="24" priority="2349"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P409:P1048576 P1:P139">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P409:P1048576">
-    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q409:Q1048576 O2:O139">
-    <cfRule type="duplicateValues" dxfId="22" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q409:Q1048576 Q2:Q56">
-    <cfRule type="duplicateValues" dxfId="21" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q409:Q1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="382"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O139">
-    <cfRule type="duplicateValues" dxfId="0" priority="2349"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="382"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -75769,42 +75761,34 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="18" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F5">
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F5">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F5">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O5">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P5">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O5">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O5">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -77521,6 +77505,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="75a921bd-2373-4ed1-a58a-7efbbe4aff4a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006947D7721780D74B90371F490D3131E8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1702d8618f67a209741377240f50d5c1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="75a921bd-2373-4ed1-a58a-7efbbe4aff4a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b7e8a1f22e8dce905c0a70d7b01f318" ns3:_="">
     <xsd:import namespace="75a921bd-2373-4ed1-a58a-7efbbe4aff4a"/>
@@ -77708,24 +77709,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CC1AADD-5FB8-4AD1-BB65-491C773829BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="75a921bd-2373-4ed1-a58a-7efbbe4aff4a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="75a921bd-2373-4ed1-a58a-7efbbe4aff4a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB807400-70DE-4319-828B-B60C333A5A06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{162AFE70-8AAB-44B3-845B-A0173B5F7774}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -77741,28 +77749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB807400-70DE-4319-828B-B60C333A5A06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CC1AADD-5FB8-4AD1-BB65-491C773829BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="75a921bd-2373-4ed1-a58a-7efbbe4aff4a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>